--- a/Code/math_mean_dim2.xlsx
+++ b/Code/math_mean_dim2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="3">
   <si>
     <t>DE</t>
   </si>
@@ -44,7 +44,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -70,11 +70,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -94,6 +108,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,56 +131,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C11"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
-    <col min="2" max="2" width="11.7109375" customWidth="true"/>
-    <col min="3" max="3" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>3.0810546195690733</v>
+        <v>486.05828228560762</v>
       </c>
       <c r="B2">
-        <v>9.2358022956212196</v>
+        <v>0.012090399821907589</v>
       </c>
       <c r="C2">
-        <v>0.090163067816692019</v>
+        <v>0.84593996047932896</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>10.173815185171426</v>
+        <v>18.667403251365609</v>
       </c>
       <c r="B3">
-        <v>3.0826965616676003</v>
+        <v>0.25519596050571702</v>
       </c>
       <c r="C3">
-        <v>0.060566792171143483</v>
+        <v>0.67262787181788397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>6076.0287079755581</v>
+        <v>2390317.9545544242</v>
       </c>
       <c r="B4">
-        <v>37934.330142804865</v>
+        <v>1598.3382034534259</v>
       </c>
       <c r="C4">
-        <v>1222.9743164118747</v>
+        <v>106.97418469880063</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>719.48060053265897</v>
+      </c>
+      <c r="B5">
+        <v>0.043190754034204498</v>
+      </c>
+      <c r="C5">
+        <v>0.75490961369518372</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>3197.1438316682015</v>
+      </c>
+      <c r="B6">
+        <v>23.902416825726277</v>
+      </c>
+      <c r="C6">
+        <v>33.9929915937646</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>95851.682185447542</v>
+      </c>
+      <c r="B7">
+        <v>3.7494657864017369</v>
+      </c>
+      <c r="C7">
+        <v>93.08364292053588</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7.437670171450355</v>
+      </c>
+      <c r="B8">
+        <v>0.17977685878604988</v>
+      </c>
+      <c r="C8">
+        <v>0.47862601612967015</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>20.119712198837686</v>
+      </c>
+      <c r="B9">
+        <v>19.744357995296038</v>
+      </c>
+      <c r="C9">
+        <v>20.016840796402612</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9.7343305553635258</v>
+      </c>
+      <c r="B10">
+        <v>0.65585781444103297</v>
+      </c>
+      <c r="C10">
+        <v>2.2990075608202023</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>9.2705743390565463</v>
+      </c>
+      <c r="B11">
+        <v>0.34396167312340431</v>
+      </c>
+      <c r="C11">
+        <v>1.1562980397978304</v>
       </c>
     </row>
   </sheetData>
